--- a/SuppFig2/SuppFig2 data.xlsx
+++ b/SuppFig2/SuppFig2 data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcsegura/Desktop/PP4_github/SuppFig2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F406631C-E7E1-924B-B15E-1C4DD03AB824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D55C3-54C2-1242-B1C9-BFE4E1B5F727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{7A322819-B326-304D-99BA-29597D2F776E}"/>
+    <workbookView xWindow="-33200" yWindow="560" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{7A322819-B326-304D-99BA-29597D2F776E}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppFig 1C, 1D" sheetId="1" r:id="rId1"/>
     <sheet name="SuppFig 1G, H" sheetId="2" r:id="rId2"/>
     <sheet name="STATS" sheetId="3" r:id="rId3"/>
+    <sheet name="Kruskal Wallis test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="69">
   <si>
     <t>file name</t>
   </si>
@@ -227,13 +228,31 @@
   </si>
   <si>
     <t>SuppFig 2H</t>
+  </si>
+  <si>
+    <t>H-statistic</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Kruskal Wallis Test</t>
+  </si>
+  <si>
+    <t>Dunn's Test for Multiple Comparisons</t>
+  </si>
+  <si>
+    <t>Dunn's Test (No Correction)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +272,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,11 +302,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3358,7 +3388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC64C2CB-B86A-C243-A6D6-75B1967695A4}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3762,4 +3792,399 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE82CF0B-0166-6740-B7D8-7D0AA1717725}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>9.5737654948181401</v>
+      </c>
+      <c r="F3">
+        <v>8.3384098404025303E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>18.484149563096899</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9.6876384231799195E-5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>2.3574655660714199</v>
+      </c>
+      <c r="K8">
+        <v>1.2627672783333299</v>
+      </c>
+      <c r="L8">
+        <v>0.60595442502166297</v>
+      </c>
+      <c r="M8">
+        <v>0.65400877896671805</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2.1268200000000002E-3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2.3574655660714199</v>
+      </c>
+      <c r="K9">
+        <v>2.3308286133333298</v>
+      </c>
+      <c r="L9">
+        <v>0.60595442502166297</v>
+      </c>
+      <c r="M9">
+        <v>0.19634361040205001</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.84113199999999999</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>2.6261093049999999</v>
+      </c>
+      <c r="K10">
+        <v>1.1540538783333301</v>
+      </c>
+      <c r="L10">
+        <v>0.89850663775836404</v>
+      </c>
+      <c r="M10">
+        <v>0.24106337359836399</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3.5854300000000001E-4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2.6261093049999999</v>
+      </c>
+      <c r="K11">
+        <v>0.95817877333333301</v>
+      </c>
+      <c r="L11">
+        <v>0.89850663775836404</v>
+      </c>
+      <c r="M11">
+        <v>0.155808714255736</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5.01229E-3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:R6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>